--- a/Demo/Data/1_loc/data/Loc.xlsx
+++ b/Demo/Data/1_loc/data/Loc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ExportExcel\TestData\1_loc\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fancyHub\ExportExcel\Demo\Data\1_loc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDD5400-11D1-41AD-AB09-B27CF993673C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A04F1C9-3EAE-4790-B1AD-00C9EA7092E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8370" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loc | Export_Client" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -91,17 +91,23 @@
   </si>
   <si>
     <t>我好</t>
+  </si>
+  <si>
+    <t>大刀</t>
+  </si>
+  <si>
+    <t>长矛</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -109,7 +115,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,7 +123,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -126,7 +132,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -135,7 +141,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -144,7 +150,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,7 +158,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,7 +166,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,7 +174,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,7 +182,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -185,7 +191,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -194,7 +200,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,7 +208,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,7 +217,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,7 +225,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,7 +234,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,7 +243,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,21 +251,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -702,71 +708,50 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -795,9 +780,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -835,7 +820,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -941,7 +926,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1083,7 +1068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1091,20 +1076,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="30">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1143,7 +1128,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1154,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1165,7 +1150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1198,7 +1183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +1194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1229,32 +1214,27 @@
       </c>
       <c r="C10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="O1:T1 O3:T3 A1:L1 A3:L3">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="A1:T1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>公式单元格=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>公式单元格=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>公式单元格=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A3:T3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>公式单元格=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
